--- a/Data/Parametrización/Parámetrico.xlsx
+++ b/Data/Parametrización/Parámetrico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\ALICORP_ExtractosBancariosDispatcher01\Parametrización\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F0401-5A76-41C4-BA49-688F6AEB09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8FA47-7A1F-46EE-9B0D-60907F12D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="811" activeTab="2" xr2:uid="{40F6D5F7-2A4E-4871-9F43-828D310F1343}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Bancos" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Bancos!$A$1:$P$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Orden!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="250">
   <si>
     <t>Banco</t>
   </si>
@@ -424,51 +425,15 @@
     <t>SCOTIABANK</t>
   </si>
   <si>
-    <t>0000531723</t>
-  </si>
-  <si>
     <t>01556</t>
   </si>
   <si>
     <t>090</t>
   </si>
   <si>
-    <t>0000428206</t>
-  </si>
-  <si>
     <t>091</t>
   </si>
   <si>
-    <t>0002170485</t>
-  </si>
-  <si>
-    <t>0004461265</t>
-  </si>
-  <si>
-    <t>0002573628</t>
-  </si>
-  <si>
-    <t>0003342785</t>
-  </si>
-  <si>
-    <t>0001543815</t>
-  </si>
-  <si>
-    <t>0005328519</t>
-  </si>
-  <si>
-    <t>0002538164</t>
-  </si>
-  <si>
-    <t>0004519360</t>
-  </si>
-  <si>
-    <t>0401020018</t>
-  </si>
-  <si>
-    <t>0401020019</t>
-  </si>
-  <si>
     <t>1000002473</t>
   </si>
   <si>
@@ -514,9 +479,6 @@
     <t>INTERBANK</t>
   </si>
   <si>
-    <t>1000001306130</t>
-  </si>
-  <si>
     <t>8000980315675690</t>
   </si>
   <si>
@@ -529,42 +491,9 @@
     <t>8000980302098856</t>
   </si>
   <si>
-    <t>1000001306139</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
-    <t>1643001018226</t>
-  </si>
-  <si>
-    <t>2003001018237</t>
-  </si>
-  <si>
-    <t>2003001081991</t>
-  </si>
-  <si>
-    <t>0550010025048</t>
-  </si>
-  <si>
-    <t>2003001082008</t>
-  </si>
-  <si>
-    <t>2003000359937</t>
-  </si>
-  <si>
-    <t>2003001056709</t>
-  </si>
-  <si>
-    <t>2003001056716</t>
-  </si>
-  <si>
-    <t>1070010179073</t>
-  </si>
-  <si>
-    <t>1073000163576</t>
-  </si>
-  <si>
     <t>SANTANDER</t>
   </si>
   <si>
@@ -658,9 +587,6 @@
     <t>PROORIENTE</t>
   </si>
   <si>
-    <t>ALICORP INV</t>
-  </si>
-  <si>
     <t>MASTERBREAD</t>
   </si>
   <si>
@@ -761,6 +687,147 @@
   </si>
   <si>
     <t>00110910780100016874</t>
+  </si>
+  <si>
+    <t>Alicorp_BBVA</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS TEAL S.A. - RUC 20100046831</t>
+  </si>
+  <si>
+    <t>Alicorp_BOFA</t>
+  </si>
+  <si>
+    <t>ALICORP SAA</t>
+  </si>
+  <si>
+    <t>VITAPRO SA</t>
+  </si>
+  <si>
+    <t>MASTERBREAD S A</t>
+  </si>
+  <si>
+    <t>R TRADING SA</t>
+  </si>
+  <si>
+    <t>Intradevco Industrial SA</t>
+  </si>
+  <si>
+    <t>ALICORP COLOMBIA SA</t>
+  </si>
+  <si>
+    <t>ALICORP URUGUAY SRL</t>
+  </si>
+  <si>
+    <t>COLCUN SA</t>
+  </si>
+  <si>
+    <t>Alicorp_SCOTIABANK</t>
+  </si>
+  <si>
+    <t>ALICORP S.A.</t>
+  </si>
+  <si>
+    <t>VITAPRO S A</t>
+  </si>
+  <si>
+    <t>MASTERBREAD S.A.</t>
+  </si>
+  <si>
+    <t>ALICORP INVERSIONES</t>
+  </si>
+  <si>
+    <t>PROORIENTE S.A.</t>
+  </si>
+  <si>
+    <t>R. TRADING S.A.</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIA</t>
+  </si>
+  <si>
+    <t>0531723.01</t>
+  </si>
+  <si>
+    <t>C428206.07</t>
+  </si>
+  <si>
+    <t>2170485.01</t>
+  </si>
+  <si>
+    <t>4461265.07</t>
+  </si>
+  <si>
+    <t>2573628.01</t>
+  </si>
+  <si>
+    <t>3342785.07</t>
+  </si>
+  <si>
+    <t>1543815.01</t>
+  </si>
+  <si>
+    <t>5328519.01</t>
+  </si>
+  <si>
+    <t>2538164.01</t>
+  </si>
+  <si>
+    <t>4519360.07</t>
+  </si>
+  <si>
+    <t>1020018.01</t>
+  </si>
+  <si>
+    <t>1020019.07</t>
+  </si>
+  <si>
+    <t>Alicorp_INTERBANK</t>
+  </si>
+  <si>
+    <t>R TRADING</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS TEAL</t>
+  </si>
+  <si>
+    <t>100-0001306130</t>
+  </si>
+  <si>
+    <t>100-0001306139</t>
+  </si>
+  <si>
+    <t>164-3001018226</t>
+  </si>
+  <si>
+    <t>200-3001018237</t>
+  </si>
+  <si>
+    <t>200-3001081991</t>
+  </si>
+  <si>
+    <t>200-3001082008</t>
+  </si>
+  <si>
+    <t>055-0010025048</t>
+  </si>
+  <si>
+    <t>200-3000359937</t>
+  </si>
+  <si>
+    <t>200-3001056709</t>
+  </si>
+  <si>
+    <t>200-3001056716</t>
+  </si>
+  <si>
+    <t>107-0010179073</t>
+  </si>
+  <si>
+    <t>107-3000163576</t>
   </si>
 </sst>
 </file>
@@ -821,7 +888,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +898,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +937,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,6 +963,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1210,7 +1286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04970025-F2CD-4057-B901-789700D73917}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1222,13 +1300,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,7 +1464,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,18 +1478,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -1420,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,7 +1517,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -1453,7 +1531,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B5" s="8">
         <v>4</v>
@@ -1481,7 +1559,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
@@ -1490,12 +1568,12 @@
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8">
         <v>7</v>
@@ -1509,7 +1587,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B9" s="8">
         <v>8</v>
@@ -1531,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1219FAAE-734A-42BF-9FEA-AB7BFF8A2ED6}">
   <dimension ref="A1:P1048519"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1621,7 @@
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1555,7 +1633,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1573,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -1588,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>9</v>
@@ -1597,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>18</v>
@@ -1609,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1618,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>14</v>
@@ -1630,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1661,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1670,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>14</v>
@@ -1682,7 +1760,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1713,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1722,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>14</v>
@@ -1734,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1765,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1774,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>14</v>
@@ -1786,7 +1864,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -1817,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1826,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>14</v>
@@ -1838,7 +1916,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1869,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1878,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>14</v>
@@ -1890,7 +1968,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1921,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1930,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>14</v>
@@ -1942,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -1973,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1982,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>14</v>
@@ -1994,7 +2072,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -2025,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2034,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>14</v>
@@ -2046,7 +2124,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -2077,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2086,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>14</v>
@@ -2098,7 +2176,7 @@
         <v>31</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -2129,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -2138,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>14</v>
@@ -2150,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -2181,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -2190,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>14</v>
@@ -2202,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -2233,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -2242,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>14</v>
@@ -2254,7 +2332,7 @@
         <v>34</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2285,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -2294,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>14</v>
@@ -2306,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -2337,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -2346,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>14</v>
@@ -2358,7 +2436,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -2389,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -2398,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>14</v>
@@ -2410,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -2441,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -2450,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>14</v>
@@ -2462,7 +2540,7 @@
         <v>38</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -2493,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -2502,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>14</v>
@@ -2514,7 +2592,7 @@
         <v>39</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -2545,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -2554,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>14</v>
@@ -2566,7 +2644,7 @@
         <v>40</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>15</v>
@@ -2597,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -2606,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>14</v>
@@ -2618,7 +2696,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -2649,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -2658,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>14</v>
@@ -2670,7 +2748,7 @@
         <v>42</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>15</v>
@@ -2701,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
@@ -2710,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>14</v>
@@ -2722,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -2753,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -2762,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>14</v>
@@ -2774,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>15</v>
@@ -2805,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -2814,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>14</v>
@@ -2826,7 +2904,7 @@
         <v>45</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>15</v>
@@ -2857,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
@@ -2866,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>14</v>
@@ -2878,7 +2956,7 @@
         <v>46</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>15</v>
@@ -2909,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -2918,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>14</v>
@@ -2930,7 +3008,7 @@
         <v>47</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>15</v>
@@ -2961,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -2970,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>14</v>
@@ -2982,7 +3060,7 @@
         <v>48</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>15</v>
@@ -3013,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
@@ -3022,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>14</v>
@@ -3034,7 +3112,7 @@
         <v>49</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -3065,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -3074,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>14</v>
@@ -3086,7 +3164,7 @@
         <v>50</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>15</v>
@@ -3117,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -3126,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>14</v>
@@ -3138,7 +3216,7 @@
         <v>51</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>15</v>
@@ -3169,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -3178,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>14</v>
@@ -3190,7 +3268,7 @@
         <v>52</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>15</v>
@@ -3221,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
@@ -3230,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>14</v>
@@ -3242,7 +3320,7 @@
         <v>53</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>15</v>
@@ -3273,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
@@ -3282,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>14</v>
@@ -3294,7 +3372,7 @@
         <v>54</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>15</v>
@@ -3325,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -3334,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>14</v>
@@ -3346,7 +3424,7 @@
         <v>55</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>15</v>
@@ -3377,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -3386,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>14</v>
@@ -3398,7 +3476,7 @@
         <v>56</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>15</v>
@@ -3429,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -3438,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>14</v>
@@ -3450,7 +3528,7 @@
         <v>57</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>15</v>
@@ -3481,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -3490,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>14</v>
@@ -3502,7 +3580,7 @@
         <v>58</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>15</v>
@@ -3533,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
@@ -3542,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>14</v>
@@ -3554,7 +3632,7 @@
         <v>59</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>15</v>
@@ -3585,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -3594,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>14</v>
@@ -3606,7 +3684,7 @@
         <v>60</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>15</v>
@@ -3637,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
@@ -3646,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>14</v>
@@ -3658,7 +3736,7 @@
         <v>61</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>15</v>
@@ -3689,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
@@ -3698,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>14</v>
@@ -3710,7 +3788,7 @@
         <v>62</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>15</v>
@@ -3741,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
@@ -3750,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>14</v>
@@ -3762,7 +3840,7 @@
         <v>63</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>15</v>
@@ -3793,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
@@ -3802,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>14</v>
@@ -3814,7 +3892,7 @@
         <v>64</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>15</v>
@@ -3845,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
@@ -3854,7 +3932,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>14</v>
@@ -3866,7 +3944,7 @@
         <v>65</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>15</v>
@@ -3897,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -3906,7 +3984,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>14</v>
@@ -3918,7 +3996,7 @@
         <v>66</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>15</v>
@@ -3949,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -3958,7 +4036,7 @@
         <v>12</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>14</v>
@@ -3970,7 +4048,7 @@
         <v>67</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>15</v>
@@ -4001,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -4010,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>14</v>
@@ -4022,7 +4100,7 @@
         <v>68</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>15</v>
@@ -4053,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
@@ -4062,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>14</v>
@@ -4074,7 +4152,7 @@
         <v>69</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>15</v>
@@ -4105,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
@@ -4114,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>14</v>
@@ -4126,7 +4204,7 @@
         <v>70</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>15</v>
@@ -4157,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -4166,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>14</v>
@@ -4178,7 +4256,7 @@
         <v>71</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>15</v>
@@ -4209,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -4218,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>14</v>
@@ -4230,7 +4308,7 @@
         <v>72</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>15</v>
@@ -4261,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -4270,7 +4348,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>14</v>
@@ -4282,7 +4360,7 @@
         <v>73</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>15</v>
@@ -4313,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -4322,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>14</v>
@@ -4334,7 +4412,7 @@
         <v>74</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>15</v>
@@ -4365,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -4374,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>14</v>
@@ -4386,7 +4464,7 @@
         <v>75</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>15</v>
@@ -4417,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
@@ -4426,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>14</v>
@@ -4438,7 +4516,7 @@
         <v>76</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>15</v>
@@ -4469,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -4478,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>14</v>
@@ -4490,7 +4568,7 @@
         <v>77</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>15</v>
@@ -4521,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
@@ -4530,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>14</v>
@@ -4542,7 +4620,7 @@
         <v>78</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>15</v>
@@ -4573,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
@@ -4582,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>14</v>
@@ -4594,7 +4672,7 @@
         <v>79</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>15</v>
@@ -4625,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
@@ -4634,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>14</v>
@@ -4646,7 +4724,7 @@
         <v>80</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>15</v>
@@ -4677,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4686,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>81</v>
@@ -4698,7 +4776,7 @@
         <v>82</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>15</v>
@@ -4729,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
@@ -4738,7 +4816,7 @@
         <v>84</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>14</v>
@@ -4750,7 +4828,7 @@
         <v>85</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>15</v>
@@ -4781,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -4790,7 +4868,7 @@
         <v>84</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>14</v>
@@ -4802,7 +4880,7 @@
         <v>86</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>15</v>
@@ -4833,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
@@ -4842,7 +4920,7 @@
         <v>84</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>81</v>
@@ -4854,7 +4932,7 @@
         <v>87</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>15</v>
@@ -4885,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -4894,7 +4972,7 @@
         <v>88</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>14</v>
@@ -4906,7 +4984,7 @@
         <v>89</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>15</v>
@@ -4937,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -4946,7 +5024,7 @@
         <v>88</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>14</v>
@@ -4958,7 +5036,7 @@
         <v>90</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>15</v>
@@ -4989,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
@@ -4998,7 +5076,7 @@
         <v>88</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>14</v>
@@ -5010,7 +5088,7 @@
         <v>91</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>15</v>
@@ -5041,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -5050,7 +5128,7 @@
         <v>88</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>81</v>
@@ -5062,7 +5140,7 @@
         <v>92</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>15</v>
@@ -5093,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
@@ -5102,7 +5180,7 @@
         <v>93</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>14</v>
@@ -5114,7 +5192,7 @@
         <v>94</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>15</v>
@@ -5145,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
@@ -5154,7 +5232,7 @@
         <v>93</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>81</v>
@@ -5166,7 +5244,7 @@
         <v>95</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>15</v>
@@ -5197,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
@@ -5206,7 +5284,7 @@
         <v>96</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>14</v>
@@ -5218,7 +5296,7 @@
         <v>97</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>15</v>
@@ -5249,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
@@ -5258,7 +5336,7 @@
         <v>96</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>81</v>
@@ -5269,7 +5347,9 @@
       <c r="H72" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J72" s="2" t="s">
         <v>15</v>
       </c>
@@ -5299,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -5308,7 +5388,7 @@
         <v>99</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>14</v>
@@ -5319,7 +5399,9 @@
       <c r="H73" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I73" s="9"/>
+      <c r="I73" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J73" s="2" t="s">
         <v>15</v>
       </c>
@@ -5349,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
@@ -5358,7 +5440,7 @@
         <v>99</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>14</v>
@@ -5369,7 +5451,9 @@
       <c r="H74" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J74" s="2" t="s">
         <v>15</v>
       </c>
@@ -5399,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
@@ -5408,7 +5492,7 @@
         <v>99</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>81</v>
@@ -5419,7 +5503,9 @@
       <c r="H75" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I75" s="9"/>
+      <c r="I75" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J75" s="2" t="s">
         <v>15</v>
       </c>
@@ -5449,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
@@ -5458,7 +5544,7 @@
         <v>103</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>14</v>
@@ -5469,7 +5555,9 @@
       <c r="H76" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J76" s="2" t="s">
         <v>15</v>
       </c>
@@ -5499,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
@@ -5508,7 +5596,7 @@
         <v>103</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>14</v>
@@ -5519,7 +5607,9 @@
       <c r="H77" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I77" s="9"/>
+      <c r="I77" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J77" s="2" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
@@ -5558,7 +5648,7 @@
         <v>103</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>81</v>
@@ -5569,7 +5659,9 @@
       <c r="H78" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I78" s="9"/>
+      <c r="I78" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J78" s="2" t="s">
         <v>15</v>
       </c>
@@ -5599,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -5608,7 +5700,7 @@
         <v>107</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>14</v>
@@ -5619,7 +5711,9 @@
       <c r="H79" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I79" s="9"/>
+      <c r="I79" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J79" s="2" t="s">
         <v>15</v>
       </c>
@@ -5649,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
@@ -5658,7 +5752,7 @@
         <v>107</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>81</v>
@@ -5669,7 +5763,9 @@
       <c r="H80" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I80" s="9"/>
+      <c r="I80" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J80" s="2" t="s">
         <v>15</v>
       </c>
@@ -5708,7 +5804,7 @@
         <v>12</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>14</v>
@@ -5717,9 +5813,11 @@
         <v>1</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I81" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J81" s="2" t="s">
         <v>111</v>
       </c>
@@ -5758,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>81</v>
@@ -5767,9 +5865,11 @@
         <v>2</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I82" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J82" s="2" t="s">
         <v>111</v>
       </c>
@@ -5808,7 +5908,7 @@
         <v>84</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>14</v>
@@ -5817,9 +5917,11 @@
         <v>3</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I83" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J83" s="2" t="s">
         <v>111</v>
       </c>
@@ -5858,7 +5960,7 @@
         <v>84</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>81</v>
@@ -5867,9 +5969,11 @@
         <v>4</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I84" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J84" s="2" t="s">
         <v>111</v>
       </c>
@@ -5908,7 +6012,7 @@
         <v>88</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>14</v>
@@ -5917,9 +6021,11 @@
         <v>5</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I85" s="9"/>
+        <v>195</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J85" s="2" t="s">
         <v>111</v>
       </c>
@@ -5958,7 +6064,7 @@
         <v>88</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>81</v>
@@ -5967,9 +6073,11 @@
         <v>6</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I86" s="9"/>
+        <v>196</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J86" s="2" t="s">
         <v>111</v>
       </c>
@@ -6008,7 +6116,7 @@
         <v>96</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>14</v>
@@ -6017,9 +6125,11 @@
         <v>7</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I87" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J87" s="2" t="s">
         <v>111</v>
       </c>
@@ -6058,7 +6168,7 @@
         <v>99</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>14</v>
@@ -6067,9 +6177,11 @@
         <v>8</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I88" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J88" s="2" t="s">
         <v>111</v>
       </c>
@@ -6108,7 +6220,7 @@
         <v>103</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>14</v>
@@ -6117,9 +6229,11 @@
         <v>9</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I89" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J89" s="2" t="s">
         <v>111</v>
       </c>
@@ -6158,7 +6272,7 @@
         <v>103</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>81</v>
@@ -6167,9 +6281,11 @@
         <v>10</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I90" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J90" s="2" t="s">
         <v>111</v>
       </c>
@@ -6208,7 +6324,7 @@
         <v>107</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>14</v>
@@ -6217,9 +6333,11 @@
         <v>11</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I91" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J91" s="2" t="s">
         <v>111</v>
       </c>
@@ -6258,7 +6376,7 @@
         <v>107</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>81</v>
@@ -6267,9 +6385,11 @@
         <v>12</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I92" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J92" s="2" t="s">
         <v>111</v>
       </c>
@@ -6299,7 +6419,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
@@ -6308,18 +6428,20 @@
         <v>12</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="4">
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I93" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J93" s="2" t="s">
         <v>13</v>
       </c>
@@ -6327,10 +6449,10 @@
         <v>16</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>21</v>
@@ -6338,7 +6460,7 @@
       <c r="O93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P93" s="8" t="str">
+      <c r="P93" s="4" t="str">
         <f>VLOOKUP(B93,Orden!$A$1:$C$9,3,FALSE)</f>
         <v>N/A</v>
       </c>
@@ -6349,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
@@ -6358,18 +6480,20 @@
         <v>84</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="4">
         <v>2</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I94" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="J94" s="2" t="s">
         <v>13</v>
       </c>
@@ -6377,10 +6501,10 @@
         <v>16</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>21</v>
@@ -6388,7 +6512,7 @@
       <c r="O94" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P94" s="8" t="str">
+      <c r="P94" s="4" t="str">
         <f>VLOOKUP(B94,Orden!$A$1:$C$9,3,FALSE)</f>
         <v>N/A</v>
       </c>
@@ -6399,16 +6523,16 @@
         <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>81</v>
@@ -6417,20 +6541,22 @@
         <v>1</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I95" s="9"/>
+        <v>147</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J95" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>21</v>
@@ -6449,16 +6575,16 @@
         <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>81</v>
@@ -6467,20 +6593,22 @@
         <v>2</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I96" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J96" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>21</v>
@@ -6499,16 +6627,16 @@
         <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>81</v>
@@ -6517,20 +6645,22 @@
         <v>3</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I97" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J97" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>21</v>
@@ -6549,16 +6679,16 @@
         <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>81</v>
@@ -6567,20 +6697,22 @@
         <v>4</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I98" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J98" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>21</v>
@@ -6599,16 +6731,16 @@
         <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>81</v>
@@ -6617,20 +6749,22 @@
         <v>5</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I99" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J99" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>21</v>
@@ -6649,15 +6783,17 @@
         <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E100" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="F100" s="10" t="s">
         <v>81</v>
       </c>
@@ -6665,20 +6801,22 @@
         <v>6</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I100" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J100" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>21</v>
@@ -6697,15 +6835,17 @@
         <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E101" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="F101" s="10" t="s">
         <v>81</v>
       </c>
@@ -6713,20 +6853,22 @@
         <v>7</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I101" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J101" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>21</v>
@@ -6745,15 +6887,17 @@
         <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E102" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="F102" s="10" t="s">
         <v>81</v>
       </c>
@@ -6761,20 +6905,22 @@
         <v>8</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I102" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="J102" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>21</v>
@@ -6802,7 +6948,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>14</v>
@@ -6811,20 +6957,22 @@
         <v>1</v>
       </c>
       <c r="H103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="2" t="s">
+      <c r="K103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M103" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>21</v>
@@ -6852,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>81</v>
@@ -6861,20 +7009,22 @@
         <v>2</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I104" s="9"/>
+        <v>223</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J104" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>21</v>
@@ -6902,7 +7052,7 @@
         <v>84</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>14</v>
@@ -6911,20 +7061,22 @@
         <v>3</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I105" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M105" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>21</v>
@@ -6952,7 +7104,7 @@
         <v>84</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>81</v>
@@ -6961,20 +7113,22 @@
         <v>4</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I106" s="9"/>
+        <v>225</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>21</v>
@@ -7002,7 +7156,7 @@
         <v>88</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>14</v>
@@ -7011,20 +7165,22 @@
         <v>5</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I107" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M107" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>21</v>
@@ -7052,7 +7208,7 @@
         <v>88</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>81</v>
@@ -7061,20 +7217,22 @@
         <v>6</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I108" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J108" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>21</v>
@@ -7102,7 +7260,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>14</v>
@@ -7111,20 +7269,22 @@
         <v>7</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I109" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M109" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>21</v>
@@ -7152,7 +7312,7 @@
         <v>96</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>14</v>
@@ -7161,20 +7321,22 @@
         <v>8</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I110" s="9"/>
+        <v>229</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M110" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>21</v>
@@ -7202,7 +7364,7 @@
         <v>103</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>14</v>
@@ -7211,20 +7373,22 @@
         <v>9</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I111" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M111" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>21</v>
@@ -7252,7 +7416,7 @@
         <v>103</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>81</v>
@@ -7261,20 +7425,22 @@
         <v>10</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I112" s="9"/>
+        <v>231</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J112" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>21</v>
@@ -7302,7 +7468,7 @@
         <v>107</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>14</v>
@@ -7311,20 +7477,22 @@
         <v>11</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I113" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="M113" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>21</v>
@@ -7352,7 +7520,7 @@
         <v>107</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>81</v>
@@ -7361,20 +7529,22 @@
         <v>12</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I114" s="9"/>
+        <v>233</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="J114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>21</v>
@@ -7393,7 +7563,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
@@ -7402,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>14</v>
@@ -7411,20 +7581,22 @@
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I115" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J115" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>21</v>
@@ -7443,7 +7615,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
@@ -7451,8 +7623,8 @@
       <c r="D116" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>190</v>
+      <c r="E116" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>14</v>
@@ -7460,21 +7632,23 @@
       <c r="G116" s="4">
         <v>2</v>
       </c>
-      <c r="H116" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I116" s="9"/>
+      <c r="H116" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J116" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>21</v>
@@ -7493,7 +7667,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
@@ -7502,7 +7676,7 @@
         <v>12</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>81</v>
@@ -7511,20 +7685,22 @@
         <v>3</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I117" s="9"/>
+        <v>239</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J117" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>21</v>
@@ -7543,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
@@ -7552,7 +7728,7 @@
         <v>84</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>14</v>
@@ -7561,20 +7737,22 @@
         <v>4</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I118" s="9"/>
+        <v>240</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J118" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>21</v>
@@ -7593,7 +7771,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
@@ -7602,7 +7780,7 @@
         <v>84</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>81</v>
@@ -7611,20 +7789,22 @@
         <v>5</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I119" s="9"/>
+        <v>241</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J119" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>21</v>
@@ -7643,7 +7823,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
@@ -7652,7 +7832,7 @@
         <v>88</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>14</v>
@@ -7661,20 +7841,22 @@
         <v>6</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I120" s="9"/>
+        <v>242</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J120" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>21</v>
@@ -7693,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
@@ -7702,29 +7884,31 @@
         <v>88</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G121" s="4">
         <v>7</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I121" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J121" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>21</v>
@@ -7743,7 +7927,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
@@ -7752,29 +7936,31 @@
         <v>88</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G122" s="4">
         <v>8</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I122" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J122" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>21</v>
@@ -7793,7 +7979,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
@@ -7802,7 +7988,7 @@
         <v>96</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>14</v>
@@ -7811,20 +7997,22 @@
         <v>9</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I123" s="9"/>
+        <v>245</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J123" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>21</v>
@@ -7843,7 +8031,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
@@ -7852,7 +8040,7 @@
         <v>103</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>14</v>
@@ -7861,20 +8049,22 @@
         <v>10</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I124" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J124" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>21</v>
@@ -7893,7 +8083,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
@@ -7902,7 +8092,7 @@
         <v>103</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>81</v>
@@ -7911,20 +8101,22 @@
         <v>11</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I125" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J125" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>21</v>
@@ -7943,7 +8135,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
@@ -7952,7 +8144,7 @@
         <v>107</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>14</v>
@@ -7961,20 +8153,22 @@
         <v>12</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I126" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J126" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>21</v>
@@ -7993,7 +8187,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
@@ -8002,7 +8196,7 @@
         <v>107</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>81</v>
@@ -8011,20 +8205,22 @@
         <v>13</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I127" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J127" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>21</v>
@@ -8043,7 +8239,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
@@ -8052,7 +8248,7 @@
         <v>12</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>14</v>
@@ -8061,20 +8257,20 @@
         <v>1</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>21</v>
@@ -8093,7 +8289,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
@@ -8102,7 +8298,7 @@
         <v>12</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>81</v>
@@ -8111,20 +8307,20 @@
         <v>2</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>21</v>
@@ -8143,7 +8339,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
@@ -8152,7 +8348,7 @@
         <v>84</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>14</v>
@@ -8161,20 +8357,20 @@
         <v>3</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>21</v>
@@ -8193,7 +8389,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
@@ -8202,7 +8398,7 @@
         <v>103</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>81</v>
@@ -8211,20 +8407,20 @@
         <v>4</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>21</v>
@@ -8243,7 +8439,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
@@ -8252,7 +8448,7 @@
         <v>107</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>14</v>
@@ -8261,20 +8457,20 @@
         <v>5</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>21</v>
@@ -8293,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
@@ -8302,7 +8498,7 @@
         <v>107</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>81</v>
@@ -8311,20 +8507,20 @@
         <v>6</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>21</v>
@@ -8343,7 +8539,7 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
@@ -8352,7 +8548,7 @@
         <v>12</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>14</v>
@@ -8361,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="2" t="s">
@@ -8371,10 +8567,10 @@
         <v>16</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>21</v>
@@ -8393,7 +8589,7 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
@@ -8402,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>81</v>
@@ -8411,7 +8607,7 @@
         <v>2</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="2" t="s">
@@ -8421,10 +8617,10 @@
         <v>16</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>21</v>
@@ -8443,7 +8639,7 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
@@ -8452,7 +8648,7 @@
         <v>84</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>14</v>
@@ -8461,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="2" t="s">
@@ -8471,10 +8667,10 @@
         <v>16</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>21</v>
@@ -8493,7 +8689,7 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
@@ -8502,7 +8698,7 @@
         <v>84</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>81</v>
@@ -8511,7 +8707,7 @@
         <v>4</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="2" t="s">
@@ -8521,10 +8717,10 @@
         <v>16</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>21</v>
@@ -8543,7 +8739,7 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
@@ -8552,7 +8748,7 @@
         <v>107</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>14</v>
@@ -8561,7 +8757,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="2" t="s">
@@ -8571,10 +8767,10 @@
         <v>16</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>21</v>
@@ -8593,7 +8789,7 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
@@ -8602,7 +8798,7 @@
         <v>107</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>81</v>
@@ -8611,7 +8807,7 @@
         <v>6</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="2" t="s">
@@ -8621,10 +8817,10 @@
         <v>16</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>21</v>
@@ -8641,6 +8837,8 @@
       <c r="E1048519" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P139" xr:uid="{1219FAAE-734A-42BF-9FEA-AB7BFF8A2ED6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Parametrización/Parámetrico.xlsx
+++ b/Data/Parametrización/Parámetrico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\ALICORP_ExtractosBancariosDispatcher01\Parametrización\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8FA47-7A1F-46EE-9B0D-60907F12D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E69DF3D-D2DD-4AD4-85A4-05041300DB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="811" activeTab="2" xr2:uid="{40F6D5F7-2A4E-4871-9F43-828D310F1343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="811" activeTab="1" xr2:uid="{40F6D5F7-2A4E-4871-9F43-828D310F1343}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="19" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Bancos" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Bancos!$A$1:$P$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Bancos!$A$1:$P$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Orden!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="257">
   <si>
     <t>Banco</t>
   </si>
@@ -137,697 +137,718 @@
     <t>Cierre Mes</t>
   </si>
   <si>
+    <t>1910199500050</t>
+  </si>
+  <si>
+    <t>Transacción Masiva</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>1930098592077</t>
+  </si>
+  <si>
+    <t>1931510129027</t>
+  </si>
+  <si>
+    <t>1911068691057</t>
+  </si>
+  <si>
+    <t>1911068724090</t>
+  </si>
+  <si>
+    <t>1911068725000</t>
+  </si>
+  <si>
+    <t>5351820013009</t>
+  </si>
+  <si>
+    <t>3351841724009</t>
+  </si>
+  <si>
+    <t>4051890407027</t>
+  </si>
+  <si>
+    <t>3101877598047</t>
+  </si>
+  <si>
+    <t>2151957826035</t>
+  </si>
+  <si>
+    <t>3801937912050</t>
+  </si>
+  <si>
+    <t>2451964502000</t>
+  </si>
+  <si>
+    <t>2151984469056</t>
+  </si>
+  <si>
+    <t>4752000352054</t>
+  </si>
+  <si>
+    <t>1932006524018</t>
+  </si>
+  <si>
+    <t>4752000361045</t>
+  </si>
+  <si>
+    <t>2152007539087</t>
+  </si>
+  <si>
+    <t>4052029958033</t>
+  </si>
+  <si>
+    <t>3952045979050</t>
+  </si>
+  <si>
+    <t>3952045982081</t>
+  </si>
+  <si>
+    <t>1932066337089</t>
+  </si>
+  <si>
+    <t>3752068215037</t>
+  </si>
+  <si>
+    <t>1932066426088</t>
+  </si>
+  <si>
+    <t>3702018949095</t>
+  </si>
+  <si>
+    <t>2502126981007</t>
+  </si>
+  <si>
+    <t>1932142445057</t>
+  </si>
+  <si>
+    <t>4402149216095</t>
+  </si>
+  <si>
+    <t>4102162107077</t>
+  </si>
+  <si>
+    <t>3052157607016</t>
+  </si>
+  <si>
+    <t>5752144263001</t>
+  </si>
+  <si>
+    <t>3002166864016</t>
+  </si>
+  <si>
+    <t>4052205379063</t>
+  </si>
+  <si>
+    <t>1932219571008</t>
+  </si>
+  <si>
+    <t>2852215678071</t>
+  </si>
+  <si>
+    <t>4852206010018</t>
+  </si>
+  <si>
+    <t>5702216064059</t>
+  </si>
+  <si>
+    <t>3052209960035</t>
+  </si>
+  <si>
+    <t>5402245346006</t>
+  </si>
+  <si>
+    <t>5702249750021</t>
+  </si>
+  <si>
+    <t>3452255718076</t>
+  </si>
+  <si>
+    <t>3852266431029</t>
+  </si>
+  <si>
+    <t>2852327354012</t>
+  </si>
+  <si>
+    <t>5052343555081</t>
+  </si>
+  <si>
+    <t>2202495327043</t>
+  </si>
+  <si>
+    <t>3152451312044</t>
+  </si>
+  <si>
+    <t>2552472479090</t>
+  </si>
+  <si>
+    <t>5252448141026</t>
+  </si>
+  <si>
+    <t>2002507585042</t>
+  </si>
+  <si>
+    <t>5332492203004</t>
+  </si>
+  <si>
+    <t>2852512148018</t>
+  </si>
+  <si>
+    <t>3552457739002</t>
+  </si>
+  <si>
+    <t>4802608544012</t>
+  </si>
+  <si>
+    <t>3652567966016</t>
+  </si>
+  <si>
+    <t>3652603565003</t>
+  </si>
+  <si>
+    <t>5502643738077</t>
+  </si>
+  <si>
+    <t>4352636698050</t>
+  </si>
+  <si>
+    <t>1919673027041</t>
+  </si>
+  <si>
+    <t>4809890810053</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>1910637287151</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>1932130344025</t>
+  </si>
+  <si>
+    <t>1932181227094</t>
+  </si>
+  <si>
+    <t>1932150679138</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>1932161297081</t>
+  </si>
+  <si>
+    <t>1932269881089</t>
+  </si>
+  <si>
+    <t>1910537860028</t>
+  </si>
+  <si>
+    <t>1932186395106</t>
+  </si>
+  <si>
+    <t>PE15</t>
+  </si>
+  <si>
+    <t>1931930191078</t>
+  </si>
+  <si>
+    <t>1931981304180</t>
+  </si>
+  <si>
+    <t>PE16</t>
+  </si>
+  <si>
+    <t>1931626689000</t>
+  </si>
+  <si>
+    <t>1931693552194</t>
+  </si>
+  <si>
+    <t>PE17</t>
+  </si>
+  <si>
+    <t>1910238736073</t>
+  </si>
+  <si>
+    <t>3900025939001</t>
+  </si>
+  <si>
+    <t>1931070017161</t>
+  </si>
+  <si>
+    <t>PE18</t>
+  </si>
+  <si>
+    <t>1932161396081</t>
+  </si>
+  <si>
+    <t>1932200403092</t>
+  </si>
+  <si>
+    <t>1932208828102</t>
+  </si>
+  <si>
+    <t>PE21</t>
+  </si>
+  <si>
+    <t>1930467100081</t>
+  </si>
+  <si>
+    <t>1930756475170</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>00000584</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>SCOTIABANK</t>
+  </si>
+  <si>
+    <t>01556</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>ALICORP1</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>VITAPRO1</t>
+  </si>
+  <si>
+    <t>007000517441</t>
+  </si>
+  <si>
+    <t>RTRADING</t>
+  </si>
+  <si>
+    <t>007000089989</t>
+  </si>
+  <si>
+    <t>INTRADEV</t>
+  </si>
+  <si>
+    <t>007000090626</t>
+  </si>
+  <si>
+    <t>Perú y países</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>INTERBANK</t>
+  </si>
+  <si>
+    <t>8000980315675690</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>0008064709</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>0008064717</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>0008079285</t>
+  </si>
+  <si>
+    <t>0008079293</t>
+  </si>
+  <si>
+    <t>0008066345</t>
+  </si>
+  <si>
+    <t>0008066353</t>
+  </si>
+  <si>
+    <t>1257668289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICORPS </t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>1257680569</t>
+  </si>
+  <si>
+    <t>1257082825</t>
+  </si>
+  <si>
+    <t>1453538695</t>
+  </si>
+  <si>
+    <t>1257779466</t>
+  </si>
+  <si>
+    <t>CO11</t>
+  </si>
+  <si>
+    <t>1257283390</t>
+  </si>
+  <si>
+    <t>UY11</t>
+  </si>
+  <si>
+    <t>1257676062</t>
+  </si>
+  <si>
+    <t>UY12</t>
+  </si>
+  <si>
+    <t>1257082684</t>
+  </si>
+  <si>
+    <t>Bco. Propio</t>
+  </si>
+  <si>
+    <t>Multicash</t>
+  </si>
+  <si>
+    <t>Orden Banco</t>
+  </si>
+  <si>
+    <t>BOFA</t>
+  </si>
+  <si>
+    <t>BANBIF</t>
+  </si>
+  <si>
+    <t>Orden Cuenta</t>
+  </si>
+  <si>
+    <t>ALICORP</t>
+  </si>
+  <si>
+    <t>CODISA</t>
+  </si>
+  <si>
+    <t>PROORIENTE</t>
+  </si>
+  <si>
+    <t>MASTERBREAD</t>
+  </si>
+  <si>
+    <t>VITAPRO</t>
+  </si>
+  <si>
+    <t>INTRADEVCO</t>
+  </si>
+  <si>
+    <t>R. TRADING</t>
+  </si>
+  <si>
+    <t>00000309362</t>
+  </si>
+  <si>
+    <t>00068349419</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>Ejecutar Proceso</t>
+  </si>
+  <si>
+    <t>BANCONACIONAL</t>
+  </si>
+  <si>
+    <t>Alicorp_BCP</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Fecha (M/D/AAAA)</t>
+  </si>
+  <si>
+    <t>ALICORP S.A.A. - RUC 20100055237</t>
+  </si>
+  <si>
+    <t>VITAPRO S.A. - RUC 20555271566</t>
+  </si>
+  <si>
+    <t>MASTERBREAD S.A. - RUC 20557345931</t>
+  </si>
+  <si>
+    <t>ALICORP INVERSIONES S.A. - RUC 20543860361</t>
+  </si>
+  <si>
+    <t>PROORIENTE S.A. - RUC 20493645804</t>
+  </si>
+  <si>
+    <t>CONSORCIO DISTRIBUIDOR IQUITOS S.A. - RUC 20103959251</t>
+  </si>
+  <si>
+    <t>R. TRADING S.A. - RUC 20562926322</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIAL S.A. - RUC 20417378911</t>
+  </si>
+  <si>
+    <t>00110686350100000025</t>
+  </si>
+  <si>
+    <t>00110686340100009286</t>
+  </si>
+  <si>
+    <t>00110586540100030990</t>
+  </si>
+  <si>
+    <t>00110586540100031008</t>
+  </si>
+  <si>
+    <t>00110586520100031938</t>
+  </si>
+  <si>
+    <t>00110910730100103289</t>
+  </si>
+  <si>
+    <t>00110586560100011740</t>
+  </si>
+  <si>
+    <t>00110686330100011949</t>
+  </si>
+  <si>
+    <t>00110586520100032004</t>
+  </si>
+  <si>
+    <t>00110586550100032012</t>
+  </si>
+  <si>
+    <t>00110910720100004124</t>
+  </si>
+  <si>
+    <t>00110910780100016874</t>
+  </si>
+  <si>
+    <t>Alicorp_BBVA</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS TEAL S.A. - RUC 20100046831</t>
+  </si>
+  <si>
+    <t>Alicorp_BOFA</t>
+  </si>
+  <si>
+    <t>ALICORP SAA</t>
+  </si>
+  <si>
+    <t>VITAPRO SA</t>
+  </si>
+  <si>
+    <t>MASTERBREAD S A</t>
+  </si>
+  <si>
+    <t>R TRADING SA</t>
+  </si>
+  <si>
+    <t>Intradevco Industrial SA</t>
+  </si>
+  <si>
+    <t>ALICORP COLOMBIA SA</t>
+  </si>
+  <si>
+    <t>ALICORP URUGUAY SRL</t>
+  </si>
+  <si>
+    <t>COLCUN SA</t>
+  </si>
+  <si>
+    <t>Alicorp_SCOTIABANK</t>
+  </si>
+  <si>
+    <t>ALICORP S.A.</t>
+  </si>
+  <si>
+    <t>VITAPRO S A</t>
+  </si>
+  <si>
+    <t>MASTERBREAD S.A.</t>
+  </si>
+  <si>
+    <t>ALICORP INVERSIONES</t>
+  </si>
+  <si>
+    <t>PROORIENTE S.A.</t>
+  </si>
+  <si>
+    <t>R. TRADING S.A.</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIA</t>
+  </si>
+  <si>
+    <t>0531723.01</t>
+  </si>
+  <si>
+    <t>C428206.07</t>
+  </si>
+  <si>
+    <t>2170485.01</t>
+  </si>
+  <si>
+    <t>4461265.07</t>
+  </si>
+  <si>
+    <t>2573628.01</t>
+  </si>
+  <si>
+    <t>3342785.07</t>
+  </si>
+  <si>
+    <t>1543815.01</t>
+  </si>
+  <si>
+    <t>5328519.01</t>
+  </si>
+  <si>
+    <t>2538164.01</t>
+  </si>
+  <si>
+    <t>4519360.07</t>
+  </si>
+  <si>
+    <t>1020018.01</t>
+  </si>
+  <si>
+    <t>1020019.07</t>
+  </si>
+  <si>
+    <t>Alicorp_INTERBANK</t>
+  </si>
+  <si>
+    <t>R TRADING</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>INDUSTRIAS TEAL</t>
+  </si>
+  <si>
+    <t>100-0001306130</t>
+  </si>
+  <si>
+    <t>100-0001306139</t>
+  </si>
+  <si>
+    <t>164-3001018226</t>
+  </si>
+  <si>
+    <t>200-3001018237</t>
+  </si>
+  <si>
+    <t>200-3001081991</t>
+  </si>
+  <si>
+    <t>200-3001082008</t>
+  </si>
+  <si>
+    <t>055-0010025048</t>
+  </si>
+  <si>
+    <t>200-3000359937</t>
+  </si>
+  <si>
+    <t>200-3001056709</t>
+  </si>
+  <si>
+    <t>200-3001056716</t>
+  </si>
+  <si>
+    <t>107-0010179073</t>
+  </si>
+  <si>
+    <t>107-3000163576</t>
+  </si>
+  <si>
+    <t>Alicorp_BANBIF_ALICORP1</t>
+  </si>
+  <si>
+    <t>Alicorp_BANBIF_VITAPRO1</t>
+  </si>
+  <si>
+    <t>Alicorp_BANBIF_RTRADING</t>
+  </si>
+  <si>
+    <t>Alicorp_BANBIF_INTRADEV</t>
+  </si>
+  <si>
+    <t>VITAPRO S.A.</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIAL S A</t>
+  </si>
+  <si>
+    <t>001000002473</t>
+  </si>
+  <si>
+    <t>001000080326</t>
+  </si>
+  <si>
+    <t>007000448822</t>
+  </si>
+  <si>
+    <t>Alicorp_SANTANDER</t>
+  </si>
+  <si>
+    <t>ALICORP S.A.A.</t>
+  </si>
+  <si>
+    <t>INTRADEVCO INDUSTRIAL S.A</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>1910199500050</t>
-  </si>
-  <si>
-    <t>Transacción Masiva</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>1930098592077</t>
-  </si>
-  <si>
-    <t>1931510129027</t>
-  </si>
-  <si>
-    <t>1911068691057</t>
-  </si>
-  <si>
-    <t>1911068724090</t>
-  </si>
-  <si>
-    <t>1911068725000</t>
-  </si>
-  <si>
-    <t>5351820013009</t>
-  </si>
-  <si>
-    <t>3351841724009</t>
-  </si>
-  <si>
-    <t>4051890407027</t>
-  </si>
-  <si>
-    <t>3101877598047</t>
-  </si>
-  <si>
-    <t>2151957826035</t>
-  </si>
-  <si>
-    <t>3801937912050</t>
-  </si>
-  <si>
-    <t>2451964502000</t>
-  </si>
-  <si>
-    <t>2151984469056</t>
-  </si>
-  <si>
-    <t>4752000352054</t>
-  </si>
-  <si>
-    <t>1932006524018</t>
-  </si>
-  <si>
-    <t>4752000361045</t>
-  </si>
-  <si>
-    <t>2152007539087</t>
-  </si>
-  <si>
-    <t>4052029958033</t>
-  </si>
-  <si>
-    <t>3952045979050</t>
-  </si>
-  <si>
-    <t>3952045982081</t>
-  </si>
-  <si>
-    <t>1932066337089</t>
-  </si>
-  <si>
-    <t>3752068215037</t>
-  </si>
-  <si>
-    <t>1932066426088</t>
-  </si>
-  <si>
-    <t>3702018949095</t>
-  </si>
-  <si>
-    <t>2502126981007</t>
-  </si>
-  <si>
-    <t>1932142445057</t>
-  </si>
-  <si>
-    <t>4402149216095</t>
-  </si>
-  <si>
-    <t>4102162107077</t>
-  </si>
-  <si>
-    <t>3052157607016</t>
-  </si>
-  <si>
-    <t>5752144263001</t>
-  </si>
-  <si>
-    <t>3002166864016</t>
-  </si>
-  <si>
-    <t>4052205379063</t>
-  </si>
-  <si>
-    <t>1932219571008</t>
-  </si>
-  <si>
-    <t>2852215678071</t>
-  </si>
-  <si>
-    <t>4852206010018</t>
-  </si>
-  <si>
-    <t>5702216064059</t>
-  </si>
-  <si>
-    <t>3052209960035</t>
-  </si>
-  <si>
-    <t>5402245346006</t>
-  </si>
-  <si>
-    <t>5702249750021</t>
-  </si>
-  <si>
-    <t>3452255718076</t>
-  </si>
-  <si>
-    <t>3852266431029</t>
-  </si>
-  <si>
-    <t>2852327354012</t>
-  </si>
-  <si>
-    <t>5052343555081</t>
-  </si>
-  <si>
-    <t>2202495327043</t>
-  </si>
-  <si>
-    <t>3152451312044</t>
-  </si>
-  <si>
-    <t>2552472479090</t>
-  </si>
-  <si>
-    <t>5252448141026</t>
-  </si>
-  <si>
-    <t>2002507585042</t>
-  </si>
-  <si>
-    <t>5332492203004</t>
-  </si>
-  <si>
-    <t>2852512148018</t>
-  </si>
-  <si>
-    <t>3552457739002</t>
-  </si>
-  <si>
-    <t>4802608544012</t>
-  </si>
-  <si>
-    <t>3652567966016</t>
-  </si>
-  <si>
-    <t>3652603565003</t>
-  </si>
-  <si>
-    <t>5502643738077</t>
-  </si>
-  <si>
-    <t>4352636698050</t>
-  </si>
-  <si>
-    <t>1919673027041</t>
-  </si>
-  <si>
-    <t>4809890810053</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>1910637287151</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>PE12</t>
-  </si>
-  <si>
-    <t>1932130344025</t>
-  </si>
-  <si>
-    <t>1932181227094</t>
-  </si>
-  <si>
-    <t>1932150679138</t>
-  </si>
-  <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>1932161297081</t>
-  </si>
-  <si>
-    <t>1932269881089</t>
-  </si>
-  <si>
-    <t>1910537860028</t>
-  </si>
-  <si>
-    <t>1932186395106</t>
-  </si>
-  <si>
-    <t>PE15</t>
-  </si>
-  <si>
-    <t>1931930191078</t>
-  </si>
-  <si>
-    <t>1931981304180</t>
-  </si>
-  <si>
-    <t>PE16</t>
-  </si>
-  <si>
-    <t>1931626689000</t>
-  </si>
-  <si>
-    <t>1931693552194</t>
-  </si>
-  <si>
-    <t>PE17</t>
-  </si>
-  <si>
-    <t>1910238736073</t>
-  </si>
-  <si>
-    <t>3900025939001</t>
-  </si>
-  <si>
-    <t>1931070017161</t>
-  </si>
-  <si>
-    <t>PE18</t>
-  </si>
-  <si>
-    <t>1932161396081</t>
-  </si>
-  <si>
-    <t>1932200403092</t>
-  </si>
-  <si>
-    <t>1932208828102</t>
-  </si>
-  <si>
-    <t>PE21</t>
-  </si>
-  <si>
-    <t>1930467100081</t>
-  </si>
-  <si>
-    <t>1930756475170</t>
-  </si>
-  <si>
-    <t>BBVA</t>
-  </si>
-  <si>
-    <t>00000584</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>SCOTIABANK</t>
-  </si>
-  <si>
-    <t>01556</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>1000002473</t>
-  </si>
-  <si>
-    <t>ALICORP1</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>1000080326</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>7000448822</t>
-  </si>
-  <si>
-    <t>VITAPRO1</t>
-  </si>
-  <si>
-    <t>007000517441</t>
-  </si>
-  <si>
-    <t>RTRADING</t>
-  </si>
-  <si>
-    <t>007000089989</t>
-  </si>
-  <si>
-    <t>INTRADEV</t>
-  </si>
-  <si>
-    <t>007000090626</t>
-  </si>
-  <si>
-    <t>Perú y países</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>INTERBANK</t>
-  </si>
-  <si>
-    <t>8000980315675690</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>1050000018864</t>
-  </si>
-  <si>
-    <t>8000980302098856</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>SANTANDER</t>
-  </si>
-  <si>
-    <t>0008064709</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>0008064717</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>0008079285</t>
-  </si>
-  <si>
-    <t>0008079293</t>
-  </si>
-  <si>
-    <t>0008066345</t>
-  </si>
-  <si>
-    <t>0008066353</t>
-  </si>
-  <si>
-    <t>1257668289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICORPS </t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>1257680569</t>
-  </si>
-  <si>
-    <t>1257082825</t>
-  </si>
-  <si>
-    <t>1453538695</t>
-  </si>
-  <si>
-    <t>1257779466</t>
-  </si>
-  <si>
-    <t>CO11</t>
-  </si>
-  <si>
-    <t>1257283390</t>
-  </si>
-  <si>
-    <t>UY11</t>
-  </si>
-  <si>
-    <t>1257676062</t>
-  </si>
-  <si>
-    <t>UY12</t>
-  </si>
-  <si>
-    <t>1257082684</t>
-  </si>
-  <si>
-    <t>Bco. Propio</t>
-  </si>
-  <si>
-    <t>Multicash</t>
-  </si>
-  <si>
-    <t>Orden Banco</t>
-  </si>
-  <si>
-    <t>BOFA</t>
-  </si>
-  <si>
-    <t>BANBIF</t>
-  </si>
-  <si>
-    <t>Orden Cuenta</t>
-  </si>
-  <si>
-    <t>ALICORP</t>
-  </si>
-  <si>
-    <t>CODISA</t>
-  </si>
-  <si>
-    <t>PROORIENTE</t>
-  </si>
-  <si>
-    <t>MASTERBREAD</t>
-  </si>
-  <si>
-    <t>VITAPRO</t>
-  </si>
-  <si>
-    <t>INTRADEVCO</t>
-  </si>
-  <si>
-    <t>R. TRADING</t>
-  </si>
-  <si>
-    <t>00000309362</t>
-  </si>
-  <si>
-    <t>00068349419</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>BCP</t>
-  </si>
-  <si>
-    <t>Ejecutar Proceso</t>
-  </si>
-  <si>
-    <t>BANCONACIONAL</t>
-  </si>
-  <si>
-    <t>Alicorp_BCP</t>
-  </si>
-  <si>
-    <t>Día</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Fecha (M/D/AAAA)</t>
-  </si>
-  <si>
-    <t>ALICORP S.A.A. - RUC 20100055237</t>
-  </si>
-  <si>
-    <t>VITAPRO S.A. - RUC 20555271566</t>
-  </si>
-  <si>
-    <t>MASTERBREAD S.A. - RUC 20557345931</t>
-  </si>
-  <si>
-    <t>ALICORP INVERSIONES S.A. - RUC 20543860361</t>
-  </si>
-  <si>
-    <t>PROORIENTE S.A. - RUC 20493645804</t>
-  </si>
-  <si>
-    <t>CONSORCIO DISTRIBUIDOR IQUITOS S.A. - RUC 20103959251</t>
-  </si>
-  <si>
-    <t>R. TRADING S.A. - RUC 20562926322</t>
-  </si>
-  <si>
-    <t>INTRADEVCO INDUSTRIAL S.A. - RUC 20417378911</t>
-  </si>
-  <si>
-    <t>00110686350100000025</t>
-  </si>
-  <si>
-    <t>00110686340100009286</t>
-  </si>
-  <si>
-    <t>00110586540100030990</t>
-  </si>
-  <si>
-    <t>00110586540100031008</t>
-  </si>
-  <si>
-    <t>00110586520100031938</t>
-  </si>
-  <si>
-    <t>00110910730100103289</t>
-  </si>
-  <si>
-    <t>00110586560100011740</t>
-  </si>
-  <si>
-    <t>00110686330100011949</t>
-  </si>
-  <si>
-    <t>00110586520100032004</t>
-  </si>
-  <si>
-    <t>00110586550100032012</t>
-  </si>
-  <si>
-    <t>00110910720100004124</t>
-  </si>
-  <si>
-    <t>00110910780100016874</t>
-  </si>
-  <si>
-    <t>Alicorp_BBVA</t>
-  </si>
-  <si>
-    <t>INDUSTRIAS TEAL S.A. - RUC 20100046831</t>
-  </si>
-  <si>
-    <t>Alicorp_BOFA</t>
-  </si>
-  <si>
-    <t>ALICORP SAA</t>
-  </si>
-  <si>
-    <t>VITAPRO SA</t>
-  </si>
-  <si>
-    <t>MASTERBREAD S A</t>
-  </si>
-  <si>
-    <t>R TRADING SA</t>
-  </si>
-  <si>
-    <t>Intradevco Industrial SA</t>
-  </si>
-  <si>
-    <t>ALICORP COLOMBIA SA</t>
-  </si>
-  <si>
-    <t>ALICORP URUGUAY SRL</t>
-  </si>
-  <si>
-    <t>COLCUN SA</t>
-  </si>
-  <si>
-    <t>Alicorp_SCOTIABANK</t>
-  </si>
-  <si>
-    <t>ALICORP S.A.</t>
-  </si>
-  <si>
-    <t>VITAPRO S A</t>
-  </si>
-  <si>
-    <t>MASTERBREAD S.A.</t>
-  </si>
-  <si>
-    <t>ALICORP INVERSIONES</t>
-  </si>
-  <si>
-    <t>PROORIENTE S.A.</t>
-  </si>
-  <si>
-    <t>R. TRADING S.A.</t>
-  </si>
-  <si>
-    <t>INTRADEVCO INDUSTRIA</t>
-  </si>
-  <si>
-    <t>0531723.01</t>
-  </si>
-  <si>
-    <t>C428206.07</t>
-  </si>
-  <si>
-    <t>2170485.01</t>
-  </si>
-  <si>
-    <t>4461265.07</t>
-  </si>
-  <si>
-    <t>2573628.01</t>
-  </si>
-  <si>
-    <t>3342785.07</t>
-  </si>
-  <si>
-    <t>1543815.01</t>
-  </si>
-  <si>
-    <t>5328519.01</t>
-  </si>
-  <si>
-    <t>2538164.01</t>
-  </si>
-  <si>
-    <t>4519360.07</t>
-  </si>
-  <si>
-    <t>1020018.01</t>
-  </si>
-  <si>
-    <t>1020019.07</t>
-  </si>
-  <si>
-    <t>Alicorp_INTERBANK</t>
-  </si>
-  <si>
-    <t>R TRADING</t>
-  </si>
-  <si>
-    <t>INTRADEVCO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>INDUSTRIAS TEAL</t>
-  </si>
-  <si>
-    <t>100-0001306130</t>
-  </si>
-  <si>
-    <t>100-0001306139</t>
-  </si>
-  <si>
-    <t>164-3001018226</t>
-  </si>
-  <si>
-    <t>200-3001018237</t>
-  </si>
-  <si>
-    <t>200-3001081991</t>
-  </si>
-  <si>
-    <t>200-3001082008</t>
-  </si>
-  <si>
-    <t>055-0010025048</t>
-  </si>
-  <si>
-    <t>200-3000359937</t>
-  </si>
-  <si>
-    <t>200-3001056709</t>
-  </si>
-  <si>
-    <t>200-3001056716</t>
-  </si>
-  <si>
-    <t>107-0010179073</t>
-  </si>
-  <si>
-    <t>107-3000163576</t>
   </si>
 </sst>
 </file>
@@ -888,7 +909,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,12 +919,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +952,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,9 +978,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1300,13 +1312,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4AD51B-71A2-4D0F-A1B3-D760B2336ABB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1478,18 +1490,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -1498,12 +1510,12 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
@@ -1512,12 +1524,12 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -1526,12 +1538,12 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B5" s="8">
         <v>4</v>
@@ -1540,12 +1552,12 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
@@ -1554,40 +1566,40 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" s="8">
         <v>8</v>
@@ -1596,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1607,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1219FAAE-734A-42BF-9FEA-AB7BFF8A2ED6}">
-  <dimension ref="A1:P1048519"/>
+  <dimension ref="A1:P1048518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1633,7 @@
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1633,7 +1645,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1651,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -1666,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>9</v>
@@ -1675,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>18</v>
@@ -1687,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1696,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>14</v>
@@ -1705,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1723,10 +1735,10 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="4" t="str">
         <f>VLOOKUP(B2,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -1739,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1748,7 +1760,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>14</v>
@@ -1757,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1775,10 +1787,10 @@
         <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="4" t="str">
         <f>VLOOKUP(B3,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -1791,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1800,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>14</v>
@@ -1809,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1827,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="4" t="str">
         <f>VLOOKUP(B4,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -1843,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1852,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>14</v>
@@ -1861,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -1879,10 +1891,10 @@
         <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="4" t="str">
         <f>VLOOKUP(B5,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -1895,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1904,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>14</v>
@@ -1913,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1931,10 +1943,10 @@
         <v>17</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="4" t="str">
         <f>VLOOKUP(B6,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -1947,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1956,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>14</v>
@@ -1965,10 +1977,10 @@
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1983,10 +1995,10 @@
         <v>17</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="4" t="str">
         <f>VLOOKUP(B7,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -1999,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2008,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>14</v>
@@ -2017,10 +2029,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -2035,10 +2047,10 @@
         <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="4" t="str">
         <f>VLOOKUP(B8,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2051,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2060,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>14</v>
@@ -2069,10 +2081,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -2087,10 +2099,10 @@
         <v>17</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="4" t="str">
         <f>VLOOKUP(B9,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2103,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2112,7 +2124,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>14</v>
@@ -2121,10 +2133,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -2139,10 +2151,10 @@
         <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="4" t="str">
         <f>VLOOKUP(B10,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2155,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2164,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>14</v>
@@ -2173,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -2191,10 +2203,10 @@
         <v>17</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="4" t="str">
         <f>VLOOKUP(B11,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2207,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -2216,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>14</v>
@@ -2225,10 +2237,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -2243,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12" s="4" t="str">
         <f>VLOOKUP(B12,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2259,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -2268,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>14</v>
@@ -2277,10 +2289,10 @@
         <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -2295,10 +2307,10 @@
         <v>17</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13" s="4" t="str">
         <f>VLOOKUP(B13,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2311,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -2320,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>14</v>
@@ -2329,10 +2341,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2347,10 +2359,10 @@
         <v>17</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="4" t="str">
         <f>VLOOKUP(B14,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2363,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -2372,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>14</v>
@@ -2381,10 +2393,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -2399,10 +2411,10 @@
         <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="4" t="str">
         <f>VLOOKUP(B15,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2415,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -2424,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>14</v>
@@ -2433,10 +2445,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -2451,10 +2463,10 @@
         <v>17</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="4" t="str">
         <f>VLOOKUP(B16,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2467,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -2476,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>14</v>
@@ -2485,10 +2497,10 @@
         <v>16</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -2503,10 +2515,10 @@
         <v>17</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="4" t="str">
         <f>VLOOKUP(B17,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2519,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -2528,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>14</v>
@@ -2537,10 +2549,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -2555,10 +2567,10 @@
         <v>17</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" s="4" t="str">
         <f>VLOOKUP(B18,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2571,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -2580,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>14</v>
@@ -2589,10 +2601,10 @@
         <v>18</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -2607,10 +2619,10 @@
         <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" s="4" t="str">
         <f>VLOOKUP(B19,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2623,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -2632,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>14</v>
@@ -2641,10 +2653,10 @@
         <v>19</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>15</v>
@@ -2659,10 +2671,10 @@
         <v>17</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="4" t="str">
         <f>VLOOKUP(B20,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2675,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -2684,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>14</v>
@@ -2693,10 +2705,10 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -2711,10 +2723,10 @@
         <v>17</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21" s="4" t="str">
         <f>VLOOKUP(B21,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2727,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -2736,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>14</v>
@@ -2745,10 +2757,10 @@
         <v>21</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>15</v>
@@ -2763,10 +2775,10 @@
         <v>17</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="4" t="str">
         <f>VLOOKUP(B22,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2779,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
@@ -2788,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>14</v>
@@ -2797,10 +2809,10 @@
         <v>22</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -2815,10 +2827,10 @@
         <v>17</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="4" t="str">
         <f>VLOOKUP(B23,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2831,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -2840,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>14</v>
@@ -2849,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>15</v>
@@ -2867,10 +2879,10 @@
         <v>17</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" s="4" t="str">
         <f>VLOOKUP(B24,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2883,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -2892,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>14</v>
@@ -2901,10 +2913,10 @@
         <v>24</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>15</v>
@@ -2919,10 +2931,10 @@
         <v>17</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25" s="4" t="str">
         <f>VLOOKUP(B25,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2935,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
@@ -2944,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>14</v>
@@ -2953,10 +2965,10 @@
         <v>25</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>15</v>
@@ -2971,10 +2983,10 @@
         <v>17</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P26" s="4" t="str">
         <f>VLOOKUP(B26,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -2987,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
@@ -2996,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>14</v>
@@ -3005,10 +3017,10 @@
         <v>26</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>15</v>
@@ -3023,10 +3035,10 @@
         <v>17</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P27" s="4" t="str">
         <f>VLOOKUP(B27,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3039,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -3048,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>14</v>
@@ -3057,10 +3069,10 @@
         <v>27</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>15</v>
@@ -3075,10 +3087,10 @@
         <v>17</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P28" s="4" t="str">
         <f>VLOOKUP(B28,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3091,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
@@ -3100,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>14</v>
@@ -3109,10 +3121,10 @@
         <v>28</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
@@ -3127,10 +3139,10 @@
         <v>17</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29" s="4" t="str">
         <f>VLOOKUP(B29,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3143,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -3152,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>14</v>
@@ -3161,10 +3173,10 @@
         <v>29</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>15</v>
@@ -3179,10 +3191,10 @@
         <v>17</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30" s="4" t="str">
         <f>VLOOKUP(B30,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3195,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -3204,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>14</v>
@@ -3213,10 +3225,10 @@
         <v>30</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>15</v>
@@ -3231,10 +3243,10 @@
         <v>17</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="4" t="str">
         <f>VLOOKUP(B31,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3247,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -3256,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>14</v>
@@ -3265,10 +3277,10 @@
         <v>31</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>15</v>
@@ -3283,10 +3295,10 @@
         <v>17</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32" s="4" t="str">
         <f>VLOOKUP(B32,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3299,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
@@ -3308,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>14</v>
@@ -3317,10 +3329,10 @@
         <v>32</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>15</v>
@@ -3335,10 +3347,10 @@
         <v>17</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P33" s="4" t="str">
         <f>VLOOKUP(B33,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3351,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
@@ -3360,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>14</v>
@@ -3369,10 +3381,10 @@
         <v>33</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>15</v>
@@ -3387,10 +3399,10 @@
         <v>17</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P34" s="4" t="str">
         <f>VLOOKUP(B34,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3403,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -3412,7 +3424,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>14</v>
@@ -3421,10 +3433,10 @@
         <v>34</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>15</v>
@@ -3439,10 +3451,10 @@
         <v>17</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P35" s="4" t="str">
         <f>VLOOKUP(B35,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3455,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -3464,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>14</v>
@@ -3473,10 +3485,10 @@
         <v>35</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>15</v>
@@ -3491,10 +3503,10 @@
         <v>17</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P36" s="4" t="str">
         <f>VLOOKUP(B36,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3507,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -3516,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>14</v>
@@ -3525,10 +3537,10 @@
         <v>36</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>15</v>
@@ -3543,10 +3555,10 @@
         <v>17</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P37" s="4" t="str">
         <f>VLOOKUP(B37,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3559,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
@@ -3568,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>14</v>
@@ -3577,10 +3589,10 @@
         <v>37</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>15</v>
@@ -3595,10 +3607,10 @@
         <v>17</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P38" s="4" t="str">
         <f>VLOOKUP(B38,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3611,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
@@ -3620,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>14</v>
@@ -3629,10 +3641,10 @@
         <v>38</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>15</v>
@@ -3647,10 +3659,10 @@
         <v>17</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P39" s="4" t="str">
         <f>VLOOKUP(B39,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3663,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -3672,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>14</v>
@@ -3681,10 +3693,10 @@
         <v>39</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>15</v>
@@ -3699,10 +3711,10 @@
         <v>17</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P40" s="4" t="str">
         <f>VLOOKUP(B40,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3715,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
@@ -3724,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>14</v>
@@ -3733,10 +3745,10 @@
         <v>40</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>15</v>
@@ -3751,10 +3763,10 @@
         <v>17</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P41" s="4" t="str">
         <f>VLOOKUP(B41,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3767,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
@@ -3776,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>14</v>
@@ -3785,10 +3797,10 @@
         <v>41</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>15</v>
@@ -3803,10 +3815,10 @@
         <v>17</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P42" s="4" t="str">
         <f>VLOOKUP(B42,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3819,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
@@ -3828,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>14</v>
@@ -3837,10 +3849,10 @@
         <v>42</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>15</v>
@@ -3855,10 +3867,10 @@
         <v>17</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P43" s="4" t="str">
         <f>VLOOKUP(B43,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3871,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
@@ -3880,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>14</v>
@@ -3889,10 +3901,10 @@
         <v>43</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>15</v>
@@ -3907,10 +3919,10 @@
         <v>17</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P44" s="4" t="str">
         <f>VLOOKUP(B44,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3923,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
@@ -3932,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>14</v>
@@ -3941,10 +3953,10 @@
         <v>44</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>15</v>
@@ -3959,10 +3971,10 @@
         <v>17</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P45" s="4" t="str">
         <f>VLOOKUP(B45,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -3975,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -3984,7 +3996,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>14</v>
@@ -3993,10 +4005,10 @@
         <v>45</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>15</v>
@@ -4011,10 +4023,10 @@
         <v>17</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P46" s="4" t="str">
         <f>VLOOKUP(B46,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4027,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -4036,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>14</v>
@@ -4045,10 +4057,10 @@
         <v>46</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>15</v>
@@ -4063,10 +4075,10 @@
         <v>17</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P47" s="4" t="str">
         <f>VLOOKUP(B47,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4079,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -4088,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>14</v>
@@ -4097,10 +4109,10 @@
         <v>47</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>15</v>
@@ -4115,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P48" s="4" t="str">
         <f>VLOOKUP(B48,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4131,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
@@ -4140,7 +4152,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>14</v>
@@ -4149,10 +4161,10 @@
         <v>48</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>15</v>
@@ -4167,10 +4179,10 @@
         <v>17</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P49" s="4" t="str">
         <f>VLOOKUP(B49,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4183,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
@@ -4192,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>14</v>
@@ -4201,10 +4213,10 @@
         <v>49</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>15</v>
@@ -4219,10 +4231,10 @@
         <v>17</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P50" s="4" t="str">
         <f>VLOOKUP(B50,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4235,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -4244,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>14</v>
@@ -4253,10 +4265,10 @@
         <v>50</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>15</v>
@@ -4271,10 +4283,10 @@
         <v>17</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P51" s="4" t="str">
         <f>VLOOKUP(B51,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4287,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -4296,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>14</v>
@@ -4305,10 +4317,10 @@
         <v>51</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>15</v>
@@ -4323,10 +4335,10 @@
         <v>17</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P52" s="4" t="str">
         <f>VLOOKUP(B52,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4339,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -4348,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>14</v>
@@ -4357,10 +4369,10 @@
         <v>52</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>15</v>
@@ -4375,10 +4387,10 @@
         <v>17</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P53" s="4" t="str">
         <f>VLOOKUP(B53,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4391,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -4400,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>14</v>
@@ -4409,10 +4421,10 @@
         <v>53</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>15</v>
@@ -4427,10 +4439,10 @@
         <v>17</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="4" t="str">
         <f>VLOOKUP(B54,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4443,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -4452,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>14</v>
@@ -4461,10 +4473,10 @@
         <v>54</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>15</v>
@@ -4479,10 +4491,10 @@
         <v>17</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P55" s="4" t="str">
         <f>VLOOKUP(B55,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4495,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
@@ -4504,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>14</v>
@@ -4513,10 +4525,10 @@
         <v>55</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>15</v>
@@ -4531,10 +4543,10 @@
         <v>17</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P56" s="4" t="str">
         <f>VLOOKUP(B56,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4547,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -4556,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>14</v>
@@ -4565,10 +4577,10 @@
         <v>56</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>15</v>
@@ -4583,10 +4595,10 @@
         <v>17</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P57" s="4" t="str">
         <f>VLOOKUP(B57,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4599,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
@@ -4608,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>14</v>
@@ -4617,10 +4629,10 @@
         <v>57</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>15</v>
@@ -4635,10 +4647,10 @@
         <v>17</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P58" s="4" t="str">
         <f>VLOOKUP(B58,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4651,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
@@ -4660,7 +4672,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>14</v>
@@ -4669,10 +4681,10 @@
         <v>58</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>15</v>
@@ -4687,10 +4699,10 @@
         <v>17</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" s="4" t="str">
         <f>VLOOKUP(B59,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4703,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
@@ -4712,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>14</v>
@@ -4721,10 +4733,10 @@
         <v>59</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>15</v>
@@ -4739,10 +4751,10 @@
         <v>17</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P60" s="4" t="str">
         <f>VLOOKUP(B60,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4755,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -4764,19 +4776,19 @@
         <v>12</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="4">
         <v>60</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>15</v>
@@ -4785,16 +4797,16 @@
         <v>16</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P61" s="4" t="str">
         <f>VLOOKUP(B61,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4807,16 +4819,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>14</v>
@@ -4825,10 +4837,10 @@
         <v>61</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>15</v>
@@ -4843,10 +4855,10 @@
         <v>17</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P62" s="4" t="str">
         <f>VLOOKUP(B62,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4859,16 +4871,16 @@
         <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>14</v>
@@ -4877,10 +4889,10 @@
         <v>62</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>15</v>
@@ -4895,10 +4907,10 @@
         <v>17</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P63" s="4" t="str">
         <f>VLOOKUP(B63,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4911,28 +4923,28 @@
         <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="4">
         <v>63</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>15</v>
@@ -4941,16 +4953,16 @@
         <v>16</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P64" s="4" t="str">
         <f>VLOOKUP(B64,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -4963,16 +4975,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>14</v>
@@ -4981,10 +4993,10 @@
         <v>64</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>15</v>
@@ -4999,10 +5011,10 @@
         <v>17</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P65" s="4" t="str">
         <f>VLOOKUP(B65,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5015,16 +5027,16 @@
         <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>14</v>
@@ -5033,10 +5045,10 @@
         <v>65</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>15</v>
@@ -5051,10 +5063,10 @@
         <v>17</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P66" s="4" t="str">
         <f>VLOOKUP(B66,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5067,16 +5079,16 @@
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>14</v>
@@ -5085,10 +5097,10 @@
         <v>66</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>15</v>
@@ -5103,10 +5115,10 @@
         <v>17</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P67" s="4" t="str">
         <f>VLOOKUP(B67,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5119,28 +5131,28 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="4">
         <v>67</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>15</v>
@@ -5149,16 +5161,16 @@
         <v>16</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P68" s="4" t="str">
         <f>VLOOKUP(B68,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5171,16 +5183,16 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>14</v>
@@ -5189,10 +5201,10 @@
         <v>68</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>15</v>
@@ -5207,10 +5219,10 @@
         <v>17</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P69" s="4" t="str">
         <f>VLOOKUP(B69,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5223,28 +5235,28 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="4">
         <v>69</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>15</v>
@@ -5253,16 +5265,16 @@
         <v>16</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P70" s="4" t="str">
         <f>VLOOKUP(B70,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5275,16 +5287,16 @@
         <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>14</v>
@@ -5293,10 +5305,10 @@
         <v>70</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>15</v>
@@ -5311,10 +5323,10 @@
         <v>17</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P71" s="4" t="str">
         <f>VLOOKUP(B71,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5327,28 +5339,28 @@
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G72" s="4">
         <v>71</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>15</v>
@@ -5357,16 +5369,16 @@
         <v>16</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P72" s="4" t="str">
         <f>VLOOKUP(B72,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5379,16 +5391,16 @@
         <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>14</v>
@@ -5397,10 +5409,10 @@
         <v>72</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>15</v>
@@ -5415,10 +5427,10 @@
         <v>17</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P73" s="4" t="str">
         <f>VLOOKUP(B73,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5431,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>14</v>
@@ -5449,10 +5461,10 @@
         <v>73</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>15</v>
@@ -5467,10 +5479,10 @@
         <v>17</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P74" s="4" t="str">
         <f>VLOOKUP(B74,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5483,28 +5495,28 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G75" s="4">
         <v>74</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>15</v>
@@ -5513,16 +5525,16 @@
         <v>16</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P75" s="4" t="str">
         <f>VLOOKUP(B75,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5535,16 +5547,16 @@
         <v>1</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>14</v>
@@ -5553,10 +5565,10 @@
         <v>75</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>15</v>
@@ -5571,10 +5583,10 @@
         <v>17</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P76" s="4" t="str">
         <f>VLOOKUP(B76,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5587,16 +5599,16 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>14</v>
@@ -5605,10 +5617,10 @@
         <v>76</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>15</v>
@@ -5623,10 +5635,10 @@
         <v>17</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P77" s="4" t="str">
         <f>VLOOKUP(B77,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5639,28 +5651,28 @@
         <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G78" s="4">
         <v>77</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>15</v>
@@ -5669,16 +5681,16 @@
         <v>16</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P78" s="4" t="str">
         <f>VLOOKUP(B78,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5691,16 +5703,16 @@
         <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>14</v>
@@ -5709,10 +5721,10 @@
         <v>78</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>15</v>
@@ -5727,10 +5739,10 @@
         <v>17</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P79" s="4" t="str">
         <f>VLOOKUP(B79,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5743,28 +5755,28 @@
         <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G80" s="4">
         <v>79</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>15</v>
@@ -5773,16 +5785,16 @@
         <v>16</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P80" s="4" t="str">
         <f>VLOOKUP(B80,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5795,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
@@ -5804,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>14</v>
@@ -5813,28 +5825,28 @@
         <v>1</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P81" s="4" t="str">
         <f>VLOOKUP(B81,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5847,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
@@ -5856,37 +5868,37 @@
         <v>12</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G82" s="4">
         <v>2</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P82" s="4" t="str">
         <f>VLOOKUP(B82,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5899,16 +5911,16 @@
         <v>2</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>14</v>
@@ -5917,28 +5929,28 @@
         <v>3</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P83" s="4" t="str">
         <f>VLOOKUP(B83,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -5951,46 +5963,46 @@
         <v>2</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G84" s="4">
         <v>4</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P84" s="4" t="str">
         <f>VLOOKUP(B84,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6003,16 +6015,16 @@
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>14</v>
@@ -6021,28 +6033,28 @@
         <v>5</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M85" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P85" s="4" t="str">
         <f>VLOOKUP(B85,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6055,46 +6067,46 @@
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G86" s="4">
         <v>6</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P86" s="4" t="str">
         <f>VLOOKUP(B86,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6107,16 +6119,16 @@
         <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>14</v>
@@ -6125,28 +6137,28 @@
         <v>7</v>
       </c>
       <c r="H87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="J87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M87" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P87" s="4" t="str">
         <f>VLOOKUP(B87,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6159,16 +6171,16 @@
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>14</v>
@@ -6177,28 +6189,28 @@
         <v>8</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M88" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P88" s="4" t="str">
         <f>VLOOKUP(B88,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6211,16 +6223,16 @@
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>14</v>
@@ -6229,28 +6241,28 @@
         <v>9</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M89" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P89" s="4" t="str">
         <f>VLOOKUP(B89,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6263,46 +6275,46 @@
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G90" s="4">
         <v>10</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P90" s="4" t="str">
         <f>VLOOKUP(B90,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6315,46 +6327,46 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="4">
+        <v>11</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="4">
-        <v>11</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="M91" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P91" s="4" t="str">
         <f>VLOOKUP(B91,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6367,46 +6379,46 @@
         <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G92" s="4">
         <v>12</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P92" s="4" t="str">
         <f>VLOOKUP(B92,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6419,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
@@ -6428,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>14</v>
@@ -6437,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>13</v>
@@ -6449,16 +6461,16 @@
         <v>16</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P93" s="4" t="str">
         <f>VLOOKUP(B93,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6471,16 +6483,16 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>14</v>
@@ -6489,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>13</v>
@@ -6501,16 +6513,16 @@
         <v>16</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P94" s="4" t="str">
         <f>VLOOKUP(B94,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6523,46 +6535,46 @@
         <v>4</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G95" s="4">
         <v>1</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P95" s="4" t="str">
         <f>VLOOKUP(B95,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6575,46 +6587,46 @@
         <v>4</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G96" s="4">
         <v>2</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P96" s="4" t="str">
         <f>VLOOKUP(B96,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6627,46 +6639,46 @@
         <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G97" s="4">
         <v>3</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P97" s="4" t="str">
         <f>VLOOKUP(B97,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6679,46 +6691,46 @@
         <v>4</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G98" s="4">
         <v>4</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P98" s="4" t="str">
         <f>VLOOKUP(B98,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6731,46 +6743,46 @@
         <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G99" s="4">
         <v>5</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P99" s="4" t="str">
         <f>VLOOKUP(B99,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6783,46 +6795,46 @@
         <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G100" s="4">
         <v>6</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P100" s="4" t="str">
         <f>VLOOKUP(B100,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6835,46 +6847,46 @@
         <v>4</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G101" s="4">
         <v>7</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P101" s="4" t="str">
         <f>VLOOKUP(B101,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6887,46 +6899,46 @@
         <v>4</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G102" s="4">
         <v>8</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P102" s="4" t="str">
         <f>VLOOKUP(B102,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6939,7 +6951,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
@@ -6948,7 +6960,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>14</v>
@@ -6957,28 +6969,28 @@
         <v>1</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M103" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P103" s="4" t="str">
         <f>VLOOKUP(B103,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -6991,7 +7003,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -7000,37 +7012,37 @@
         <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G104" s="4">
         <v>2</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P104" s="4" t="str">
         <f>VLOOKUP(B104,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7043,16 +7055,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>14</v>
@@ -7061,28 +7073,28 @@
         <v>3</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P105" s="4" t="str">
         <f>VLOOKUP(B105,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7095,46 +7107,46 @@
         <v>5</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G106" s="4">
         <v>4</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P106" s="4" t="str">
         <f>VLOOKUP(B106,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7147,16 +7159,16 @@
         <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>14</v>
@@ -7165,28 +7177,28 @@
         <v>5</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P107" s="4" t="str">
         <f>VLOOKUP(B107,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7199,46 +7211,46 @@
         <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G108" s="4">
         <v>6</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P108" s="4" t="str">
         <f>VLOOKUP(B108,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7251,16 +7263,16 @@
         <v>5</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>14</v>
@@ -7269,28 +7281,28 @@
         <v>7</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M109" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P109" s="4" t="str">
         <f>VLOOKUP(B109,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7303,16 +7315,16 @@
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>14</v>
@@ -7321,28 +7333,28 @@
         <v>8</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M110" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P110" s="4" t="str">
         <f>VLOOKUP(B110,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7355,16 +7367,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>14</v>
@@ -7373,28 +7385,28 @@
         <v>9</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M111" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P111" s="4" t="str">
         <f>VLOOKUP(B111,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7407,46 +7419,46 @@
         <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G112" s="4">
         <v>10</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P112" s="4" t="str">
         <f>VLOOKUP(B112,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7459,46 +7471,46 @@
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="4">
+        <v>11</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="4">
-        <v>11</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="M113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P113" s="4" t="str">
         <f>VLOOKUP(B113,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7511,46 +7523,46 @@
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G114" s="4">
         <v>12</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P114" s="4" t="str">
         <f>VLOOKUP(B114,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -7563,7 +7575,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
@@ -7572,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>14</v>
@@ -7581,32 +7593,32 @@
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P115" s="9" t="str">
         <f>VLOOKUP(B115,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -7615,7 +7627,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
@@ -7623,42 +7635,42 @@
       <c r="D116" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="11" t="s">
-        <v>166</v>
+      <c r="E116" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G116" s="4">
         <v>2</v>
       </c>
-      <c r="H116" s="11" t="s">
-        <v>135</v>
+      <c r="H116" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P116" s="9" t="str">
         <f>VLOOKUP(B116,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -7667,50 +7679,50 @@
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G117" s="4">
         <v>3</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P117" s="9" t="str">
         <f>VLOOKUP(B117,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -7719,50 +7731,50 @@
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G118" s="4">
         <v>4</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P118" s="9" t="str">
         <f>VLOOKUP(B118,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -7771,50 +7783,50 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G119" s="4">
         <v>5</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P119" s="9" t="str">
         <f>VLOOKUP(B119,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -7823,50 +7835,50 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G120" s="4">
         <v>6</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P120" s="9" t="str">
         <f>VLOOKUP(B120,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -7875,50 +7887,50 @@
         <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G121" s="4">
         <v>7</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P121" s="9" t="str">
         <f>VLOOKUP(B121,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -7927,16 +7939,16 @@
         <v>6</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>14</v>
@@ -7945,32 +7957,32 @@
         <v>8</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P122" s="9" t="str">
         <f>VLOOKUP(B122,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -7979,16 +7991,16 @@
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>14</v>
@@ -7997,32 +8009,32 @@
         <v>9</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P123" s="9" t="str">
         <f>VLOOKUP(B123,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -8031,50 +8043,50 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G124" s="4">
         <v>10</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P124" s="9" t="str">
         <f>VLOOKUP(B124,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -8083,50 +8095,50 @@
         <v>6</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G125" s="4">
         <v>11</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P125" s="9" t="str">
         <f>VLOOKUP(B125,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -8135,102 +8147,102 @@
         <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G126" s="4">
         <v>12</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P126" s="9" t="str">
         <f>VLOOKUP(B126,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <f>VLOOKUP(B127,Orden!$A$1:$B$9,2,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G127" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>133</v>
+        <v>244</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P127" s="9" t="str">
         <f>VLOOKUP(B127,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -8239,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
@@ -8248,39 +8260,41 @@
         <v>12</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G128" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I128" s="9"/>
-      <c r="J128" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L128" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="M128" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P128" s="9" t="str">
         <f>VLOOKUP(B128,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -8289,48 +8303,50 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G129" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I129" s="9"/>
-      <c r="J129" s="2" t="s">
-        <v>119</v>
+        <v>252</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P129" s="9" t="str">
         <f>VLOOKUP(B129,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -8339,48 +8355,50 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G130" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P130" s="9" t="str">
         <f>VLOOKUP(B130,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -8389,48 +8407,50 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G131" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P131" s="9" t="str">
         <f>VLOOKUP(B131,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -8439,98 +8459,102 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G132" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I132" s="9"/>
-      <c r="J132" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P132" s="9" t="str">
         <f>VLOOKUP(B132,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <f>VLOOKUP(B133,Orden!$A$1:$B$9,2,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G133" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I133" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="J133" s="2" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P133" s="9" t="str">
+        <v>21</v>
+      </c>
+      <c r="P133" s="4" t="str">
         <f>VLOOKUP(B133,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>Si</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -8539,7 +8563,7 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
@@ -8548,18 +8572,20 @@
         <v>12</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G134" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I134" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="J134" s="2" t="s">
         <v>13</v>
       </c>
@@ -8567,16 +8593,16 @@
         <v>16</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P134" s="4" t="str">
         <f>VLOOKUP(B134,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -8589,27 +8615,29 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G135" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I135" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="J135" s="2" t="s">
         <v>13</v>
       </c>
@@ -8617,16 +8645,16 @@
         <v>16</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P135" s="4" t="str">
         <f>VLOOKUP(B135,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -8639,27 +8667,29 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G136" s="4">
+        <v>4</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="4">
-        <v>3</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I136" s="9"/>
+      <c r="I136" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="J136" s="2" t="s">
         <v>13</v>
       </c>
@@ -8667,16 +8697,16 @@
         <v>16</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P136" s="4" t="str">
         <f>VLOOKUP(B136,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -8689,27 +8719,29 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G137" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I137" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="J137" s="2" t="s">
         <v>13</v>
       </c>
@@ -8717,16 +8749,16 @@
         <v>16</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P137" s="4" t="str">
         <f>VLOOKUP(B137,Orden!$A$1:$C$9,3,FALSE)</f>
@@ -8739,27 +8771,29 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G138" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I138" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="J138" s="2" t="s">
         <v>13</v>
       </c>
@@ -8767,77 +8801,27 @@
         <v>16</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P138" s="4" t="str">
         <f>VLOOKUP(B138,Orden!$A$1:$C$9,3,FALSE)</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <f>VLOOKUP(B139,Orden!$A$1:$B$9,2,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G139" s="4">
-        <v>6</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I139" s="9"/>
-      <c r="J139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P139" s="4" t="str">
-        <f>VLOOKUP(B139,Orden!$A$1:$C$9,3,FALSE)</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="1048519" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048519" s="5"/>
+    <row r="1048518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048518" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P139" xr:uid="{1219FAAE-734A-42BF-9FEA-AB7BFF8A2ED6}"/>
+  <autoFilter ref="A1:P138" xr:uid="{1219FAAE-734A-42BF-9FEA-AB7BFF8A2ED6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
